--- a/statement.xlsx
+++ b/statement.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="2019-08" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="2019-07" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="2019-09" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="2019-08" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="2019-07" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">2020-08</t>
+  </si>
   <si>
     <t xml:space="preserve">2020-07</t>
   </si>
@@ -67,6 +71,15 @@
   </si>
   <si>
     <t xml:space="preserve">atp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fignig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week ending 1 sep</t>
   </si>
   <si>
     <r>
@@ -166,7 +179,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -196,6 +209,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -251,7 +271,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,6 +316,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -329,10 +353,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -340,8 +364,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="4" style="2" width="7.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="2" width="7.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -384,64 +409,66 @@
       <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="3" t="n">
-        <f aca="false">SUM(D3:D30)</f>
-        <v>-1.34</v>
-      </c>
       <c r="E2" s="3" t="n">
         <f aca="false">SUM(E3:E30)</f>
-        <v>-5.47166666666666</v>
+        <v>-6.99416666666667</v>
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">SUM(F3:F30)</f>
-        <v>-5.47166666666666</v>
+        <v>-11.1258333333333</v>
       </c>
       <c r="G2" s="3" t="n">
         <f aca="false">SUM(G3:G30)</f>
-        <v>-5.47166666666666</v>
+        <v>-11.1258333333333</v>
       </c>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H3:H30)</f>
-        <v>-5.47166666666666</v>
+        <v>-11.1258333333333</v>
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">SUM(I3:I30)</f>
-        <v>-5.47166666666666</v>
+        <v>-11.1258333333333</v>
       </c>
       <c r="J2" s="3" t="n">
         <f aca="false">SUM(J3:J30)</f>
-        <v>-5.47166666666666</v>
+        <v>-11.1258333333333</v>
       </c>
       <c r="K2" s="3" t="n">
         <f aca="false">SUM(K3:K30)</f>
-        <v>-5.47166666666666</v>
+        <v>-11.1258333333333</v>
       </c>
       <c r="L2" s="3" t="n">
         <f aca="false">SUM(L3:L30)</f>
-        <v>-5.47166666666666</v>
+        <v>-11.1258333333333</v>
       </c>
       <c r="M2" s="3" t="n">
         <f aca="false">SUM(M3:M30)</f>
-        <v>-5.47166666666666</v>
+        <v>-11.1258333333333</v>
       </c>
       <c r="N2" s="3" t="n">
         <f aca="false">SUM(N3:N30)</f>
-        <v>-5.47166666666666</v>
+        <v>-11.1258333333333</v>
       </c>
       <c r="O2" s="3" t="n">
         <f aca="false">SUM(O3:O30)</f>
-        <v>-5.47166666666666</v>
+        <v>-11.1258333333333</v>
       </c>
       <c r="P2" s="3" t="n">
         <f aca="false">SUM(P3:P30)</f>
+        <v>-5.47166666666667</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <f aca="false">SUM(Q3:Q30)</f>
         <v>-4.13166666666667</v>
       </c>
-      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -455,22 +482,19 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>-37.9</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="n">
-        <f aca="false">$C$4/12</f>
-        <v>-3.15833333333333</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
@@ -515,23 +539,23 @@
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3" t="n">
+        <f aca="false">$C$4/12</f>
+        <v>-3.15833333333333</v>
+      </c>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>-11.68</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="n">
-        <f aca="false">$C$5/12</f>
-        <v>-0.973333333333333</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
@@ -576,11 +600,15 @@
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3" t="n">
+        <f aca="false">$C$5/12</f>
+        <v>-0.973333333333333</v>
+      </c>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -594,22 +622,19 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="n">
         <f aca="false">'2019-08'!C2</f>
         <v>-14.98</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <f aca="false">$C$7/12</f>
-        <v>-1.24833333333333</v>
-      </c>
       <c r="E7" s="3" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
@@ -654,24 +679,24 @@
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3" t="n">
+        <f aca="false">$C$7/12</f>
+        <v>-1.24833333333333</v>
+      </c>
       <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="n">
         <f aca="false">'2019-08'!D2</f>
         <v>-1.1</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666669</v>
-      </c>
       <c r="E8" s="3" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
@@ -716,8 +741,133 @@
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="3" t="n">
+        <f aca="false">$C$8/12</f>
+        <v>-0.0916666666666669</v>
+      </c>
       <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <f aca="false">'2019-09'!C2</f>
+        <v>-9.74</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <f aca="false">$C$10/12</f>
+        <v>-0.811666666666667</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <f aca="false">'2019-09'!D2</f>
+        <v>-58.11</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <f aca="false">$C$11/12</f>
+        <v>-4.8425</v>
+      </c>
+      <c r="P11" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -731,6 +881,317 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.51"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8"/>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8"/>
+      <c r="C2" s="10" t="n">
+        <f aca="false">SUM(C3:C30)</f>
+        <v>-9.74</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <f aca="false">SUM(D3:D30)</f>
+        <v>-58.11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>43703</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="n">
+        <v>-17.19</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">SUM($C$3:$D4)</f>
+        <v>-17.19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
+        <v>43704</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>-7.84</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">SUM($C$3:$D5)</f>
+        <v>-25.03</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>43706</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="n">
+        <v>-36.78</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">SUM($C$3:$D6)</f>
+        <v>-61.81</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">SUM($C$3:$D7)</f>
+        <v>-58.11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>-9.74</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="n">
+        <f aca="false">SUM($C$3:$D8)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="n">
+        <f aca="false">SUM($C$3:$D9)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="n">
+        <f aca="false">SUM($C$3:$D10)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="n">
+        <f aca="false">SUM($C$3:$D11)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="n">
+        <f aca="false">SUM($C$3:$D12)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="n">
+        <f aca="false">SUM($C$3:$D13)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="n">
+        <f aca="false">SUM($C$3:$D14)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="n">
+        <f aca="false">SUM($C$3:$D15)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="n">
+        <f aca="false">SUM($C$3:$D16)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="n">
+        <f aca="false">SUM($C$3:$D17)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="n">
+        <f aca="false">SUM($C$3:$D18)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="n">
+        <f aca="false">SUM($C$3:$D19)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="n">
+        <f aca="false">SUM($C$3:$D20)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="n">
+        <f aca="false">SUM($C$3:$D21)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="n">
+        <f aca="false">SUM($C$3:$D22)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="n">
+        <f aca="false">SUM($C$3:$D24)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="n">
+        <f aca="false">SUM($C$3:$D25)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="n">
+        <f aca="false">SUM($C$3:$D26)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="n">
+        <f aca="false">SUM($C$3:$D27)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="n">
+        <f aca="false">SUM($C$3:$D28)</f>
+        <v>-67.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -753,10 +1214,10 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,7 +1239,7 @@
         <v>43678</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="n">
@@ -794,7 +1255,7 @@
         <v>43679</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="n">
@@ -810,7 +1271,7 @@
         <v>43680</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>1.4</v>
@@ -826,7 +1287,7 @@
         <v>43680</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="n">
@@ -840,7 +1301,7 @@
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -854,7 +1315,7 @@
         <v>43682</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="n">
@@ -870,7 +1331,7 @@
         <v>43683</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="n">
@@ -886,7 +1347,7 @@
         <v>43684</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="n">
@@ -902,7 +1363,7 @@
         <v>43685</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="n">
@@ -918,7 +1379,7 @@
         <v>43686</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="n">
@@ -934,7 +1395,7 @@
         <v>43687</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>-8.8</v>
@@ -950,7 +1411,7 @@
         <v>43688</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="n">
@@ -963,7 +1424,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -977,7 +1438,7 @@
         <v>43689</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="n">
@@ -993,7 +1454,7 @@
         <v>43692</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="n">
@@ -1009,7 +1470,7 @@
         <v>43693</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="n">
@@ -1025,7 +1486,7 @@
         <v>43694</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>-7.58</v>
@@ -1041,7 +1502,7 @@
         <v>43694</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="n">
@@ -1057,7 +1518,7 @@
         <v>43695</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="n">
@@ -1070,7 +1531,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1080,7 +1541,7 @@
         <v>43696</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="n">
@@ -1096,7 +1557,7 @@
         <v>43697</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="n">
@@ -1112,7 +1573,7 @@
         <v>43698</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="n">
@@ -1128,7 +1589,7 @@
         <v>43699</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="n">
@@ -1144,7 +1605,7 @@
         <v>43700</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="n">
@@ -1157,7 +1618,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1173,7 +1634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1188,26 +1649,26 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="11.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8"/>
-      <c r="C1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="14" t="n">
         <f aca="false">SUM(C3:C29)</f>
         <v>-37.9</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="14" t="n">
         <f aca="false">SUM(D3:D29)</f>
         <v>-11.68</v>
       </c>
@@ -1220,12 +1681,12 @@
         <v>43660</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12" t="n">
         <v>-8</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="12" t="n">
         <f aca="false">SUM($C$3:$D4)</f>
         <v>-8</v>
       </c>
@@ -1235,12 +1696,12 @@
         <v>43670</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12" t="n">
         <v>38.3</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="12" t="n">
         <f aca="false">SUM($C$3:$D5)</f>
         <v>30.3</v>
       </c>
@@ -1250,12 +1711,12 @@
         <v>43671</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" s="15" t="n">
         <v>37.75</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="12" t="n">
         <f aca="false">SUM($C$3:$D6)</f>
         <v>68.05</v>
       </c>
@@ -1265,12 +1726,12 @@
         <v>43672</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="n">
         <v>-10.9</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="12" t="n">
         <f aca="false">SUM($C$3:$D7)</f>
         <v>57.15</v>
       </c>
@@ -1280,12 +1741,12 @@
         <v>43673</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12" t="n">
         <v>-29.9</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="12" t="n">
         <f aca="false">SUM($C$3:$D8)</f>
         <v>27.25</v>
       </c>
@@ -1295,12 +1756,12 @@
         <v>43674</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" s="12" t="n">
         <v>-72.9</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="12" t="n">
         <f aca="false">SUM($C$3:$D9)</f>
         <v>-45.65</v>
       </c>
@@ -1310,13 +1771,13 @@
         <v>43676</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="n">
         <v>2.17</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="12" t="n">
         <f aca="false">SUM($C$3:$D10)</f>
         <v>-43.48</v>
       </c>
@@ -1325,7 +1786,7 @@
         <v>148.72</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,12 +1794,12 @@
         <v>43677</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12" t="n">
         <v>-6.1</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="12" t="n">
         <f aca="false">SUM($C$3:$D11)</f>
         <v>-49.58</v>
       </c>

--- a/statement.xlsx
+++ b/statement.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t xml:space="preserve">2020-08</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">week ending 1 sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week ending 8 sep</t>
   </si>
   <si>
     <r>
@@ -416,47 +419,47 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="3" t="n">
         <f aca="false">SUM(E3:E30)</f>
-        <v>-6.99416666666667</v>
+        <v>-8.1175</v>
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">SUM(F3:F30)</f>
-        <v>-11.1258333333333</v>
+        <v>-12.2491666666667</v>
       </c>
       <c r="G2" s="3" t="n">
         <f aca="false">SUM(G3:G30)</f>
-        <v>-11.1258333333333</v>
+        <v>-12.2491666666667</v>
       </c>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H3:H30)</f>
-        <v>-11.1258333333333</v>
+        <v>-12.2491666666667</v>
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">SUM(I3:I30)</f>
-        <v>-11.1258333333333</v>
+        <v>-12.2491666666667</v>
       </c>
       <c r="J2" s="3" t="n">
         <f aca="false">SUM(J3:J30)</f>
-        <v>-11.1258333333333</v>
+        <v>-12.2491666666667</v>
       </c>
       <c r="K2" s="3" t="n">
         <f aca="false">SUM(K3:K30)</f>
-        <v>-11.1258333333333</v>
+        <v>-12.2491666666667</v>
       </c>
       <c r="L2" s="3" t="n">
         <f aca="false">SUM(L3:L30)</f>
-        <v>-11.1258333333333</v>
+        <v>-12.2491666666667</v>
       </c>
       <c r="M2" s="3" t="n">
         <f aca="false">SUM(M3:M30)</f>
-        <v>-11.1258333333333</v>
+        <v>-12.2491666666667</v>
       </c>
       <c r="N2" s="3" t="n">
         <f aca="false">SUM(N3:N30)</f>
-        <v>-11.1258333333333</v>
+        <v>-12.2491666666667</v>
       </c>
       <c r="O2" s="3" t="n">
         <f aca="false">SUM(O3:O30)</f>
-        <v>-11.1258333333333</v>
+        <v>-12.2491666666667</v>
       </c>
       <c r="P2" s="3" t="n">
         <f aca="false">SUM(P3:P30)</f>
@@ -817,55 +820,55 @@
       </c>
       <c r="C11" s="1" t="n">
         <f aca="false">'2019-09'!D2</f>
-        <v>-58.11</v>
+        <v>-71.59</v>
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="E11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="G11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="H11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="I11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="J11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="K11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="M11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="N11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="O11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-4.8425</v>
+        <v>-5.96583333333333</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -888,13 +891,13 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="11.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.51"/>
@@ -917,7 +920,7 @@
       </c>
       <c r="D2" s="10" t="n">
         <f aca="false">SUM(D3:D30)</f>
-        <v>-58.11</v>
+        <v>-71.59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,48 +1019,79 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
+      <c r="A10" s="8" t="n">
+        <v>43710</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="n">
+        <v>-2.8</v>
+      </c>
       <c r="E10" s="7" t="n">
         <f aca="false">SUM($C$3:$D10)</f>
-        <v>-67.85</v>
+        <v>-70.65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8" t="n">
+        <v>43711</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="n">
+        <v>-13</v>
+      </c>
       <c r="E11" s="7" t="n">
         <f aca="false">SUM($C$3:$D11)</f>
-        <v>-67.85</v>
+        <v>-83.65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
+      <c r="A12" s="8" t="n">
+        <v>43713</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="n">
+        <v>2.2</v>
+      </c>
       <c r="E12" s="7" t="n">
         <f aca="false">SUM($C$3:$D12)</f>
-        <v>-67.85</v>
+        <v>-81.45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
+      <c r="A13" s="8" t="n">
+        <v>43714</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="n">
+        <v>0.12</v>
+      </c>
       <c r="E13" s="7" t="n">
         <f aca="false">SUM($C$3:$D13)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="n">
         <f aca="false">SUM($C$3:$D14)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,7 +1100,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="n">
         <f aca="false">SUM($C$3:$D15)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,7 +1108,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="n">
         <f aca="false">SUM($C$3:$D16)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,7 +1117,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="n">
         <f aca="false">SUM($C$3:$D17)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,7 +1126,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="n">
         <f aca="false">SUM($C$3:$D18)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,7 +1135,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="n">
         <f aca="false">SUM($C$3:$D19)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,7 +1144,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="n">
         <f aca="false">SUM($C$3:$D20)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,7 +1153,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="n">
         <f aca="false">SUM($C$3:$D21)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,7 +1162,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="n">
         <f aca="false">SUM($C$3:$D22)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,7 +1175,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="n">
         <f aca="false">SUM($C$3:$D24)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,7 +1184,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="n">
         <f aca="false">SUM($C$3:$D25)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,7 +1193,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="n">
         <f aca="false">SUM($C$3:$D26)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,7 +1202,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="n">
         <f aca="false">SUM($C$3:$D27)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,7 +1211,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="n">
         <f aca="false">SUM($C$3:$D28)</f>
-        <v>-67.85</v>
+        <v>-81.33</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1335,7 @@
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1424,7 +1458,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1531,7 +1565,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1618,7 +1652,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1786,7 +1820,7 @@
         <v>148.72</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/statement.xlsx
+++ b/statement.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
   <si>
     <t xml:space="preserve">2020-08</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">week ending 8 sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week ending 15 sep</t>
   </si>
   <si>
     <r>
@@ -891,7 +894,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1096,6 +1099,9 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
+      <c r="B15" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="n">
@@ -1335,7 +1341,7 @@
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1458,7 +1464,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1565,7 +1571,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1652,7 +1658,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1820,7 +1826,7 @@
         <v>148.72</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/statement.xlsx
+++ b/statement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t xml:space="preserve">2020-08</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t xml:space="preserve">week ending 15 sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mtz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week ending 22 sep</t>
   </si>
   <si>
     <r>
@@ -361,8 +370,8 @@
   </sheetPr>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -422,47 +431,47 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="3" t="n">
         <f aca="false">SUM(E3:E30)</f>
-        <v>-8.1175</v>
+        <v>-7.7825</v>
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">SUM(F3:F30)</f>
-        <v>-12.2491666666667</v>
+        <v>-11.9141666666667</v>
       </c>
       <c r="G2" s="3" t="n">
         <f aca="false">SUM(G3:G30)</f>
-        <v>-12.2491666666667</v>
+        <v>-11.9141666666667</v>
       </c>
       <c r="H2" s="3" t="n">
         <f aca="false">SUM(H3:H30)</f>
-        <v>-12.2491666666667</v>
+        <v>-11.9141666666667</v>
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">SUM(I3:I30)</f>
-        <v>-12.2491666666667</v>
+        <v>-11.9141666666667</v>
       </c>
       <c r="J2" s="3" t="n">
         <f aca="false">SUM(J3:J30)</f>
-        <v>-12.2491666666667</v>
+        <v>-11.9141666666667</v>
       </c>
       <c r="K2" s="3" t="n">
         <f aca="false">SUM(K3:K30)</f>
-        <v>-12.2491666666667</v>
+        <v>-11.9141666666667</v>
       </c>
       <c r="L2" s="3" t="n">
         <f aca="false">SUM(L3:L30)</f>
-        <v>-12.2491666666667</v>
+        <v>-11.9141666666667</v>
       </c>
       <c r="M2" s="3" t="n">
         <f aca="false">SUM(M3:M30)</f>
-        <v>-12.2491666666667</v>
+        <v>-11.9141666666667</v>
       </c>
       <c r="N2" s="3" t="n">
         <f aca="false">SUM(N3:N30)</f>
-        <v>-12.2491666666667</v>
+        <v>-11.9141666666667</v>
       </c>
       <c r="O2" s="3" t="n">
         <f aca="false">SUM(O3:O30)</f>
-        <v>-12.2491666666667</v>
+        <v>-11.9141666666667</v>
       </c>
       <c r="P2" s="3" t="n">
         <f aca="false">SUM(P3:P30)</f>
@@ -823,55 +832,55 @@
       </c>
       <c r="C11" s="1" t="n">
         <f aca="false">'2019-09'!D2</f>
-        <v>-71.59</v>
+        <v>-67.57</v>
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="E11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="G11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="H11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="I11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="J11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="K11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="M11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="N11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="O11" s="1" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.96583333333333</v>
+        <v>-5.63083333333333</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -893,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -923,7 +932,7 @@
       </c>
       <c r="D2" s="10" t="n">
         <f aca="false">SUM(D3:D30)</f>
-        <v>-71.59</v>
+        <v>-67.57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,70 +1119,127 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>43724</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="n">
+        <v>-0.48</v>
+      </c>
       <c r="E16" s="7" t="n">
         <f aca="false">SUM($C$3:$D16)</f>
-        <v>-81.33</v>
+        <v>-81.81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
+      <c r="A17" s="8" t="n">
+        <v>43725</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="n">
+        <v>-1.64</v>
+      </c>
       <c r="E17" s="7" t="n">
         <f aca="false">SUM($C$3:$D17)</f>
-        <v>-81.33</v>
+        <v>-83.45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
+      <c r="A18" s="8" t="n">
+        <v>43726</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7" t="n">
+        <v>0.05</v>
+      </c>
       <c r="E18" s="7" t="n">
         <f aca="false">SUM($C$3:$D18)</f>
-        <v>-81.33</v>
+        <v>-83.4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
+      <c r="A19" s="8" t="n">
+        <v>43727</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7" t="n">
+        <v>1.73</v>
+      </c>
       <c r="E19" s="7" t="n">
         <f aca="false">SUM($C$3:$D19)</f>
-        <v>-81.33</v>
+        <v>-81.67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
+      <c r="A20" s="8" t="n">
+        <v>43728</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7" t="n">
+        <v>-2.02</v>
+      </c>
       <c r="E20" s="7" t="n">
         <f aca="false">SUM($C$3:$D20)</f>
-        <v>-81.33</v>
+        <v>-83.69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
+      <c r="A21" s="8" t="n">
+        <v>43729</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="n">
+        <v>5.58</v>
+      </c>
       <c r="E21" s="7" t="n">
         <f aca="false">SUM($C$3:$D21)</f>
-        <v>-81.33</v>
+        <v>-78.11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
+      <c r="A22" s="8" t="n">
+        <v>43730</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7" t="n">
+        <v>0.8</v>
+      </c>
       <c r="E22" s="7" t="n">
         <f aca="false">SUM($C$3:$D22)</f>
-        <v>-81.33</v>
+        <v>-77.31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
+      <c r="E23" s="7" t="n">
+        <f aca="false">SUM($C$3:$D23)</f>
+        <v>-77.31</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
@@ -1181,7 +1247,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="n">
         <f aca="false">SUM($C$3:$D24)</f>
-        <v>-81.33</v>
+        <v>-77.31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,7 +1256,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="n">
         <f aca="false">SUM($C$3:$D25)</f>
-        <v>-81.33</v>
+        <v>-77.31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,7 +1265,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="n">
         <f aca="false">SUM($C$3:$D26)</f>
-        <v>-81.33</v>
+        <v>-77.31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,7 +1274,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="n">
         <f aca="false">SUM($C$3:$D27)</f>
-        <v>-81.33</v>
+        <v>-77.31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,7 +1283,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="n">
         <f aca="false">SUM($C$3:$D28)</f>
-        <v>-81.33</v>
+        <v>-77.31</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1407,7 @@
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1464,7 +1530,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1571,7 +1637,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1658,7 +1724,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1826,7 +1892,7 @@
         <v>148.72</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/statement.xlsx
+++ b/statement.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t xml:space="preserve">2020-08</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t xml:space="preserve">week ending 22 sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tky</t>
   </si>
   <si>
     <r>
@@ -188,13 +197,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0;[RED]\-#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -225,6 +235,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -286,16 +303,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -303,7 +316,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,31 +360,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,11 +372,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,7 +400,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,125 +408,129 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="2" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="3" width="7.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="3" t="n">
+      <c r="D2" s="2" t="n">
+        <f aca="false">SUM(D3:D30)</f>
+        <v>-6.92833333333333</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <f aca="false">SUM(E3:E30)</f>
-        <v>-7.7825</v>
-      </c>
-      <c r="F2" s="3" t="n">
+        <v>-8.26833333333333</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <f aca="false">SUM(F3:F30)</f>
-        <v>-11.9141666666667</v>
-      </c>
-      <c r="G2" s="3" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <f aca="false">SUM(G3:G30)</f>
-        <v>-11.9141666666667</v>
-      </c>
-      <c r="H2" s="3" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <f aca="false">SUM(H3:H30)</f>
-        <v>-11.9141666666667</v>
-      </c>
-      <c r="I2" s="3" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <f aca="false">SUM(I3:I30)</f>
-        <v>-11.9141666666667</v>
-      </c>
-      <c r="J2" s="3" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="J2" s="2" t="n">
         <f aca="false">SUM(J3:J30)</f>
-        <v>-11.9141666666667</v>
-      </c>
-      <c r="K2" s="3" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <f aca="false">SUM(K3:K30)</f>
-        <v>-11.9141666666667</v>
-      </c>
-      <c r="L2" s="3" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <f aca="false">SUM(L3:L30)</f>
-        <v>-11.9141666666667</v>
-      </c>
-      <c r="M2" s="3" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <f aca="false">SUM(M3:M30)</f>
-        <v>-11.9141666666667</v>
-      </c>
-      <c r="N2" s="3" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <f aca="false">SUM(N3:N30)</f>
-        <v>-11.9141666666667</v>
-      </c>
-      <c r="O2" s="3" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="O2" s="2" t="n">
         <f aca="false">SUM(O3:O30)</f>
-        <v>-11.9141666666667</v>
-      </c>
-      <c r="P2" s="3" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="P2" s="2" t="n">
         <f aca="false">SUM(P3:P30)</f>
         <v>-5.47166666666667</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="2" t="n">
         <f aca="false">SUM(Q3:Q30)</f>
         <v>-4.13166666666667</v>
       </c>
-      <c r="R2" s="3"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -509,56 +542,56 @@
       <c r="C4" s="1" t="n">
         <v>-37.9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="2" t="n">
         <f aca="false">$C$4/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -570,74 +603,74 @@
       <c r="C5" s="1" t="n">
         <v>-11.68</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="n">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="2" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -650,56 +683,56 @@
         <f aca="false">'2019-08'!C2</f>
         <v>-14.98</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="P7" s="2" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -712,56 +745,56 @@
         <f aca="false">'2019-08'!D2</f>
         <v>-1.1</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="2" t="n">
         <f aca="false">$C$8/12</f>
         <v>-0.0916666666666669</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -774,51 +807,51 @@
         <f aca="false">'2019-09'!C2</f>
         <v>-9.74</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="2" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.811666666666667</v>
       </c>
@@ -832,57 +865,57 @@
       </c>
       <c r="C11" s="1" t="n">
         <f aca="false">'2019-09'!D2</f>
-        <v>-67.57</v>
-      </c>
-      <c r="D11" s="1" t="n">
+        <v>-73.4</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="E11" s="1" t="n">
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="F11" s="1" t="n">
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="G11" s="1" t="n">
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="G11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="H11" s="1" t="n">
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="I11" s="1" t="n">
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="I11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="J11" s="1" t="n">
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="J11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="K11" s="1" t="n">
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="K11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="L11" s="1" t="n">
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="L11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="M11" s="1" t="n">
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="M11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="N11" s="1" t="n">
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="N11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="O11" s="1" t="n">
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="O11" s="2" t="n">
         <f aca="false">$C$11/12</f>
-        <v>-5.63083333333333</v>
-      </c>
-      <c r="P11" s="1"/>
+        <v>-6.11666666666667</v>
+      </c>
+      <c r="P11" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -900,332 +933,324 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="8" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="11.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="11" t="n">
         <f aca="false">SUM(C3:C30)</f>
         <v>-9.74</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="11" t="n">
         <f aca="false">SUM(D3:D30)</f>
-        <v>-67.57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
+        <v>-73.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="7" t="n">
         <v>43703</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="n">
         <v>-17.19</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">SUM($C$3:$D4)</f>
         <v>-17.19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="7" t="n">
         <v>43704</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="n">
         <v>-7.84</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="9" t="n">
         <f aca="false">SUM($C$3:$D5)</f>
         <v>-25.03</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="7" t="n">
         <v>43706</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="n">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="n">
         <v>-36.78</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="9" t="n">
         <f aca="false">SUM($C$3:$D6)</f>
         <v>-61.81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="7" t="n">
         <v>43707</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="n">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="n">
         <v>3.7</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="9" t="n">
         <f aca="false">SUM($C$3:$D7)</f>
         <v>-58.11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="7" t="n">
         <v>43707</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="9" t="n">
         <v>-9.74</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="n">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="n">
         <f aca="false">SUM($C$3:$D8)</f>
         <v>-67.85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="n">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="n">
         <f aca="false">SUM($C$3:$D9)</f>
         <v>-67.85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="7" t="n">
         <v>43710</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="n">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="n">
         <v>-2.8</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="9" t="n">
         <f aca="false">SUM($C$3:$D10)</f>
         <v>-70.65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="7" t="n">
         <v>43711</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="n">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="n">
         <v>-13</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="9" t="n">
         <f aca="false">SUM($C$3:$D11)</f>
         <v>-83.65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="7" t="n">
         <v>43713</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="n">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="n">
         <v>2.2</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="9" t="n">
         <f aca="false">SUM($C$3:$D12)</f>
         <v>-81.45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="7" t="n">
         <v>43714</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="n">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="n">
         <v>0.12</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="9" t="n">
         <f aca="false">SUM($C$3:$D13)</f>
         <v>-81.33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="n">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="n">
         <f aca="false">SUM($C$3:$D14)</f>
         <v>-81.33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="n">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="n">
         <f aca="false">SUM($C$3:$D15)</f>
         <v>-81.33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="7" t="n">
         <v>43724</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="n">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="n">
         <v>-0.48</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="9" t="n">
         <f aca="false">SUM($C$3:$D16)</f>
         <v>-81.81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="7" t="n">
         <v>43725</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="n">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="n">
         <v>-1.64</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="9" t="n">
         <f aca="false">SUM($C$3:$D17)</f>
         <v>-83.45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="7" t="n">
         <v>43726</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="n">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="9" t="n">
         <f aca="false">SUM($C$3:$D18)</f>
         <v>-83.4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="7" t="n">
         <v>43727</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="n">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="n">
         <v>1.73</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="9" t="n">
         <f aca="false">SUM($C$3:$D19)</f>
         <v>-81.67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="7" t="n">
         <v>43728</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="n">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="n">
         <v>-2.02</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="9" t="n">
         <f aca="false">SUM($C$3:$D20)</f>
         <v>-83.69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="7" t="n">
         <v>43729</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="n">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="n">
         <v>5.58</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="9" t="n">
         <f aca="false">SUM($C$3:$D21)</f>
         <v>-78.11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="7" t="n">
         <v>43730</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="n">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="n">
         <v>0.8</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="9" t="n">
         <f aca="false">SUM($C$3:$D22)</f>
         <v>-77.31</v>
       </c>
@@ -1234,56 +1259,130 @@
       <c r="B23" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="n">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="n">
         <f aca="false">SUM($C$3:$D23)</f>
         <v>-77.31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="n">
+      <c r="A24" s="7" t="n">
+        <v>43731</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E24" s="9" t="n">
         <f aca="false">SUM($C$3:$D24)</f>
-        <v>-77.31</v>
+        <v>-77.15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="n">
+      <c r="A25" s="7" t="n">
+        <v>43732</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="E25" s="9" t="n">
         <f aca="false">SUM($C$3:$D25)</f>
-        <v>-77.31</v>
+        <v>-77.95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="n">
+      <c r="A26" s="7" t="n">
+        <v>43733</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="E26" s="9" t="n">
         <f aca="false">SUM($C$3:$D26)</f>
-        <v>-77.31</v>
+        <v>-79.26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="n">
+      <c r="A27" s="7" t="n">
+        <v>43734</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="n">
+        <v>-5.32</v>
+      </c>
+      <c r="E27" s="9" t="n">
         <f aca="false">SUM($C$3:$D27)</f>
-        <v>-77.31</v>
+        <v>-84.58</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="n">
+      <c r="A28" s="7" t="n">
+        <v>43735</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E28" s="9" t="n">
         <f aca="false">SUM($C$3:$D28)</f>
-        <v>-77.31</v>
+        <v>-82.88</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
+        <v>43737</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <f aca="false">SUM($C$3:$D29)</f>
+        <v>-83.14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="9" t="n">
+        <f aca="false">SUM($C$3:$D30)</f>
+        <v>-83.14</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="9" t="n">
+        <f aca="false">SUM($C$3:$D31)</f>
+        <v>-83.14</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="9" t="n">
+        <f aca="false">SUM($C$3:$D32)</f>
+        <v>-83.14</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="9" t="n">
+        <f aca="false">SUM($C$3:$D33)</f>
+        <v>-83.14</v>
       </c>
     </row>
   </sheetData>
@@ -1310,424 +1409,424 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="8" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="11.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="C2" s="10" t="n">
+      <c r="A2" s="14"/>
+      <c r="C2" s="11" t="n">
         <f aca="false">SUM(C3:C30)</f>
         <v>-14.98</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="11" t="n">
         <f aca="false">SUM(D3:D30)</f>
         <v>-1.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
+      <c r="A3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="14" t="n">
         <v>43678</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="n">
         <v>5.65</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">SUM($C$3:$D4)</f>
         <v>5.65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="14" t="n">
         <v>43679</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="n">
         <v>-10.16</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="9" t="n">
         <f aca="false">SUM($C$3:$D5)</f>
         <v>-4.51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="14" t="n">
         <v>43680</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="9" t="n">
         <v>1.4</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="n">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="n">
         <f aca="false">SUM($C$3:$D6)</f>
         <v>-3.11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="14" t="n">
         <v>43680</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="n">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="n">
         <v>-6.12</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="9" t="n">
         <f aca="false">SUM($C$3:$D7)</f>
         <v>-9.23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="n">
         <f aca="false">SUM($C$3:$D8)</f>
         <v>-9.23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="14" t="n">
         <v>43682</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="n">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="n">
         <v>-6.46</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="9" t="n">
         <f aca="false">SUM($C$3:$D9)</f>
         <v>-15.69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="14" t="n">
         <v>43683</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="n">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="n">
         <v>10.47</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="9" t="n">
         <f aca="false">SUM($C$3:$D10)</f>
         <v>-5.22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="14" t="n">
         <v>43684</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="n">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="n">
         <v>-13.13</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="9" t="n">
         <f aca="false">SUM($C$3:$D11)</f>
         <v>-18.35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="14" t="n">
         <v>43685</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="n">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="n">
         <v>-0.86</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="9" t="n">
         <f aca="false">SUM($C$3:$D12)</f>
         <v>-19.21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="14" t="n">
         <v>43686</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="n">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="n">
         <v>7.71</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="9" t="n">
         <f aca="false">SUM($C$3:$D13)</f>
         <v>-11.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="14" t="n">
         <v>43687</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="9" t="n">
         <v>-8.8</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="n">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="n">
         <f aca="false">SUM($C$3:$D14)</f>
         <v>-20.3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="14" t="n">
         <v>43688</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="n">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="n">
         <v>23.52</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="9" t="n">
         <f aca="false">SUM($C$3:$D15)</f>
         <v>3.22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="n">
         <f aca="false">SUM($C$3:$D16)</f>
         <v>3.22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="14" t="n">
         <v>43689</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="n">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="n">
         <v>8.2</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="9" t="n">
         <f aca="false">SUM($C$3:$D17)</f>
         <v>11.42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="14" t="n">
         <v>43692</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="n">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="n">
         <v>-11.64</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="9" t="n">
         <f aca="false">SUM($C$3:$D18)</f>
         <v>-0.220000000000003</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="14" t="n">
         <v>43693</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="n">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="n">
         <v>-13.88</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="9" t="n">
         <f aca="false">SUM($C$3:$D19)</f>
         <v>-14.1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="14" t="n">
         <v>43694</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="9" t="n">
         <v>-7.58</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="n">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="n">
         <f aca="false">SUM($C$3:$D20)</f>
         <v>-21.68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="14" t="n">
         <v>43694</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="n">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="9" t="n">
         <f aca="false">SUM($C$3:$D21)</f>
         <v>-21.48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="14" t="n">
         <v>43695</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="n">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="n">
         <v>1.6</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="9" t="n">
         <f aca="false">SUM($C$3:$D22)</f>
         <v>-19.88</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="14" t="n">
         <v>43696</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="n">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="n">
         <v>21.47</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="9" t="n">
         <f aca="false">SUM($C$3:$D24)</f>
         <v>1.59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="14" t="n">
         <v>43697</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="n">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="n">
         <v>0.72</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="9" t="n">
         <f aca="false">SUM($C$3:$D25)</f>
         <v>2.31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="14" t="n">
         <v>43698</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="n">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="n">
         <v>-7.6</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="9" t="n">
         <f aca="false">SUM($C$3:$D26)</f>
         <v>-5.29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="14" t="n">
         <v>43699</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="n">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="n">
         <v>-8.42</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="9" t="n">
         <f aca="false">SUM($C$3:$D27)</f>
         <v>-13.71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="14" t="n">
         <v>43700</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="n">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="n">
         <v>-2.37</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="9" t="n">
         <f aca="false">SUM($C$3:$D28)</f>
         <v>-16.08</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1753,137 +1852,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="11.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="C2" s="14" t="n">
+      <c r="A2" s="14"/>
+      <c r="C2" s="17" t="n">
         <f aca="false">SUM(C3:C29)</f>
         <v>-37.9</v>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="17" t="n">
         <f aca="false">SUM(D3:D29)</f>
         <v>-11.68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
+      <c r="A3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="14" t="n">
         <v>43660</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="15" t="n">
         <v>-8</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="15" t="n">
         <f aca="false">SUM($C$3:$D4)</f>
         <v>-8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="14" t="n">
         <v>43670</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="15" t="n">
         <v>38.3</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="15" t="n">
         <f aca="false">SUM($C$3:$D5)</f>
         <v>30.3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="14" t="n">
         <v>43671</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D6" s="18" t="n">
         <v>37.75</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="15" t="n">
         <f aca="false">SUM($C$3:$D6)</f>
         <v>68.05</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="14" t="n">
         <v>43672</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="15" t="n">
         <v>-10.9</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="15" t="n">
         <f aca="false">SUM($C$3:$D7)</f>
         <v>57.15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="14" t="n">
         <v>43673</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="15" t="n">
         <v>-29.9</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="15" t="n">
         <f aca="false">SUM($C$3:$D8)</f>
         <v>27.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="14" t="n">
         <v>43674</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="15" t="n">
         <v>-72.9</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="15" t="n">
         <f aca="false">SUM($C$3:$D9)</f>
         <v>-45.65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="14" t="n">
         <v>43676</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="n">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="n">
         <v>2.17</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="15" t="n">
         <f aca="false">SUM($C$3:$D10)</f>
         <v>-43.48</v>
       </c>
@@ -1892,20 +1991,20 @@
         <v>148.72</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="14" t="n">
         <v>43677</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="15" t="n">
         <v>-6.1</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="15" t="n">
         <f aca="false">SUM($C$3:$D11)</f>
         <v>-49.58</v>
       </c>

--- a/statement.xlsx
+++ b/statement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t xml:space="preserve">2020-09</t>
   </si>
@@ -98,6 +98,27 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">week ending 13</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">usp</t>
   </si>
   <si>
@@ -226,8 +247,8 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0;[RED]\-#,##0"/>
     <numFmt numFmtId="166" formatCode="D\-MMM"/>
-    <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="8">
@@ -355,11 +376,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,7 +392,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,7 +400,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -391,15 +416,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -422,8 +443,8 @@
   </sheetPr>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -488,51 +509,51 @@
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="2" t="n">
         <f aca="false">SUM(D3:D28)</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="E2" s="2" t="n">
         <f aca="false">SUM(E3:E28)</f>
-        <v>-6.22666666666667</v>
+        <v>-5.38666666666667</v>
       </c>
       <c r="F2" s="2" t="n">
         <f aca="false">SUM(F3:F28)</f>
-        <v>-7.56666666666667</v>
+        <v>-6.72666666666667</v>
       </c>
       <c r="G2" s="2" t="n">
         <f aca="false">SUM(G3:G28)</f>
-        <v>-11.6983333333333</v>
+        <v>-10.8583333333333</v>
       </c>
       <c r="H2" s="2" t="n">
         <f aca="false">SUM(H3:H28)</f>
-        <v>-11.6983333333333</v>
+        <v>-10.8583333333333</v>
       </c>
       <c r="I2" s="2" t="n">
         <f aca="false">SUM(I3:I28)</f>
-        <v>-11.6983333333333</v>
+        <v>-10.8583333333333</v>
       </c>
       <c r="J2" s="2" t="n">
         <f aca="false">SUM(J3:J28)</f>
-        <v>-11.6983333333333</v>
+        <v>-10.8583333333333</v>
       </c>
       <c r="K2" s="2" t="n">
         <f aca="false">SUM(K3:K28)</f>
-        <v>-11.6983333333333</v>
+        <v>-10.8583333333333</v>
       </c>
       <c r="L2" s="2" t="n">
         <f aca="false">SUM(L3:L28)</f>
-        <v>-11.6983333333333</v>
+        <v>-10.8583333333333</v>
       </c>
       <c r="M2" s="2" t="n">
         <f aca="false">SUM(M3:M28)</f>
-        <v>-11.6983333333333</v>
+        <v>-10.8583333333333</v>
       </c>
       <c r="N2" s="2" t="n">
         <f aca="false">SUM(N3:N28)</f>
-        <v>-11.6983333333333</v>
+        <v>-10.8583333333333</v>
       </c>
       <c r="O2" s="2" t="n">
         <f aca="false">SUM(O3:O28)</f>
-        <v>-11.6983333333333</v>
+        <v>-10.8583333333333</v>
       </c>
       <c r="P2" s="2" t="n">
         <f aca="false">SUM(P3:P28)</f>
@@ -573,55 +594,55 @@
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">'2019-10'!C1</f>
-        <v>8.42</v>
+        <v>18.5</v>
       </c>
       <c r="D4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="E4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="F4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="G4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="H4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="I4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="J4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="K4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="L4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="M4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="N4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="O4" s="3" t="n">
         <f aca="false">$C$4/12</f>
-        <v>0.701666666666667</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="6"/>
@@ -1009,22 +1030,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="8" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="8" t="n">
+      <c r="C1" s="9" t="n">
         <f aca="false">SUM(C2:C30)</f>
-        <v>8.42</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,10 +1057,10 @@
       <c r="B3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="8" t="n">
         <v>1.56</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="8" t="n">
         <f aca="false">SUM(C$2:C3)</f>
         <v>1.56</v>
       </c>
@@ -1049,10 +1072,10 @@
       <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="8" t="n">
         <v>-1.26</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="8" t="n">
         <f aca="false">SUM(C$2:C4)</f>
         <v>0.3</v>
       </c>
@@ -1064,10 +1087,10 @@
       <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="8" t="n">
         <v>0.25</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="8" t="n">
         <f aca="false">SUM(C$2:C5)</f>
         <v>0.55</v>
       </c>
@@ -1079,10 +1102,10 @@
       <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="8" t="n">
         <v>1.28</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="8" t="n">
         <f aca="false">SUM(C$2:C6)</f>
         <v>1.83</v>
       </c>
@@ -1094,10 +1117,10 @@
       <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="8" t="n">
         <v>5.37</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="8" t="n">
         <f aca="false">SUM(C$2:C7)</f>
         <v>7.2</v>
       </c>
@@ -1109,10 +1132,10 @@
       <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="8" t="n">
         <v>-5.86</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="8" t="n">
         <f aca="false">SUM(C$2:C8)</f>
         <v>1.34</v>
       </c>
@@ -1124,10 +1147,10 @@
       <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="8" t="n">
         <v>-1.88</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="8" t="n">
         <f aca="false">SUM(C$2:C9)</f>
         <v>-0.54</v>
       </c>
@@ -1142,10 +1165,10 @@
       <c r="B10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="8" t="n">
         <v>2.86</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="8" t="n">
         <f aca="false">SUM(C$2:C10)</f>
         <v>2.32</v>
       </c>
@@ -1157,10 +1180,10 @@
       <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="8" t="n">
         <v>2.33</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="8" t="n">
         <f aca="false">SUM(C$2:C11)</f>
         <v>4.65</v>
       </c>
@@ -1172,24 +1195,135 @@
       <c r="B12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="8" t="n">
         <v>3.77</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="8" t="n">
         <f aca="false">SUM(C$2:C12)</f>
         <v>8.42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="n">
+      <c r="A13" s="7" t="n">
+        <v>43748</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D13" s="8" t="n">
         <f aca="false">SUM(C$2:C13)</f>
-        <v>8.42</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="n">
+      <c r="A14" s="7" t="n">
+        <v>43749</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>-8.2</v>
+      </c>
+      <c r="D14" s="8" t="n">
         <f aca="false">SUM(C$2:C14)</f>
-        <v>8.42</v>
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <v>43750</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <f aca="false">SUM(C$2:C15)</f>
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>43751</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <f aca="false">SUM(C$2:C16)</f>
+        <v>18.5</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="8" t="n">
+        <f aca="false">SUM(C$2:C17)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="8" t="n">
+        <f aca="false">SUM(C$2:C18)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="8" t="n">
+        <f aca="false">SUM(C$2:C19)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="8" t="n">
+        <f aca="false">SUM(C$2:C20)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="8" t="n">
+        <f aca="false">SUM(C$2:C21)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="8" t="n">
+        <f aca="false">SUM(C$2:C22)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="8" t="n">
+        <f aca="false">SUM(C$2:C23)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="8" t="n">
+        <f aca="false">SUM(C$2:C24)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="8" t="n">
+        <f aca="false">SUM(C$2:C25)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="8" t="n">
+        <f aca="false">SUM(C$2:C26)</f>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
@@ -1216,446 +1350,446 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="14" t="n">
         <f aca="false">SUM(C3:C30)</f>
         <v>-9.74</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="14" t="n">
         <f aca="false">SUM(D3:D30)</f>
         <v>-73.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>43703</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="n">
         <v>-17.19</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="12" t="n">
         <f aca="false">SUM($C$3:$D4)</f>
         <v>-17.19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="10" t="n">
         <v>43704</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="n">
         <v>-7.84</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="12" t="n">
         <f aca="false">SUM($C$3:$D5)</f>
         <v>-25.03</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="10" t="n">
         <v>43706</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="n">
         <v>-36.78</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="12" t="n">
         <f aca="false">SUM($C$3:$D6)</f>
         <v>-61.81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="10" t="n">
         <v>43707</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="n">
         <v>3.7</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="12" t="n">
         <f aca="false">SUM($C$3:$D7)</f>
         <v>-58.11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="10" t="n">
         <v>43707</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="n">
         <v>-9.74</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="n">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="n">
         <f aca="false">SUM($C$3:$D8)</f>
         <v>-67.85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="n">
+      <c r="B9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="n">
         <f aca="false">SUM($C$3:$D9)</f>
         <v>-67.85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="10" t="n">
         <v>43710</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="n">
         <v>-2.8</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="12" t="n">
         <f aca="false">SUM($C$3:$D10)</f>
         <v>-70.65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="10" t="n">
         <v>43711</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="n">
         <v>-13</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="12" t="n">
         <f aca="false">SUM($C$3:$D11)</f>
         <v>-83.65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="10" t="n">
         <v>43713</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="n">
         <v>2.2</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="12" t="n">
         <f aca="false">SUM($C$3:$D12)</f>
         <v>-81.45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="10" t="n">
         <v>43714</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="n">
         <v>0.12</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="12" t="n">
         <f aca="false">SUM($C$3:$D13)</f>
         <v>-81.33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="n">
+      <c r="B14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="n">
         <f aca="false">SUM($C$3:$D14)</f>
         <v>-81.33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="n">
+      <c r="B15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="n">
         <f aca="false">SUM($C$3:$D15)</f>
         <v>-81.33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="10" t="n">
         <v>43724</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="n">
         <v>-0.48</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="12" t="n">
         <f aca="false">SUM($C$3:$D16)</f>
         <v>-81.81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="10" t="n">
         <v>43725</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="n">
         <v>-1.64</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="12" t="n">
         <f aca="false">SUM($C$3:$D17)</f>
         <v>-83.45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="10" t="n">
         <v>43726</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="n">
         <v>0.05</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="12" t="n">
         <f aca="false">SUM($C$3:$D18)</f>
         <v>-83.4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="10" t="n">
         <v>43727</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="n">
         <v>1.73</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="12" t="n">
         <f aca="false">SUM($C$3:$D19)</f>
         <v>-81.67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="10" t="n">
         <v>43728</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="n">
         <v>-2.02</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E20" s="12" t="n">
         <f aca="false">SUM($C$3:$D20)</f>
         <v>-83.69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="10" t="n">
         <v>43729</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="n">
         <v>5.58</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="12" t="n">
         <f aca="false">SUM($C$3:$D21)</f>
         <v>-78.11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="10" t="n">
         <v>43730</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="n">
         <v>0.8</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E22" s="12" t="n">
         <f aca="false">SUM($C$3:$D22)</f>
         <v>-77.31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="n">
         <f aca="false">SUM($C$3:$D23)</f>
         <v>-77.31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="10" t="n">
         <v>43731</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="n">
         <v>0.16</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E24" s="12" t="n">
         <f aca="false">SUM($C$3:$D24)</f>
         <v>-77.15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="10" t="n">
         <v>43732</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="n">
         <v>-0.8</v>
       </c>
-      <c r="E25" s="11" t="n">
+      <c r="E25" s="12" t="n">
         <f aca="false">SUM($C$3:$D25)</f>
         <v>-77.95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="10" t="n">
         <v>43733</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="n">
         <v>-1.31</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E26" s="12" t="n">
         <f aca="false">SUM($C$3:$D26)</f>
         <v>-79.26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="10" t="n">
         <v>43734</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="n">
         <v>-5.32</v>
       </c>
-      <c r="E27" s="11" t="n">
+      <c r="E27" s="12" t="n">
         <f aca="false">SUM($C$3:$D27)</f>
         <v>-84.58</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="10" t="n">
         <v>43735</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="n">
         <v>1.7</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E28" s="12" t="n">
         <f aca="false">SUM($C$3:$D28)</f>
         <v>-82.88</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="10" t="n">
         <v>43737</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="D29" s="11" t="n">
         <v>-0.26</v>
       </c>
-      <c r="E29" s="11" t="n">
+      <c r="E29" s="12" t="n">
         <f aca="false">SUM($C$3:$D29)</f>
         <v>-83.14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="11" t="n">
+      <c r="E30" s="12" t="n">
         <f aca="false">SUM($C$3:$D30)</f>
         <v>-83.14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="11" t="n">
+      <c r="E31" s="12" t="n">
         <f aca="false">SUM($C$3:$D31)</f>
         <v>-83.14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="11" t="n">
+      <c r="E32" s="12" t="n">
         <f aca="false">SUM($C$3:$D32)</f>
         <v>-83.14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="11" t="n">
+      <c r="E33" s="12" t="n">
         <f aca="false">SUM($C$3:$D33)</f>
         <v>-83.14</v>
       </c>
@@ -1684,424 +1818,424 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="17"/>
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="C2" s="13" t="n">
+      <c r="A2" s="17"/>
+      <c r="C2" s="14" t="n">
         <f aca="false">SUM(C3:C30)</f>
         <v>-14.98</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="14" t="n">
         <f aca="false">SUM(D3:D30)</f>
         <v>-1.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="17" t="n">
         <v>43678</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="n">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="n">
         <v>5.65</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="12" t="n">
         <f aca="false">SUM($C$3:$D4)</f>
         <v>5.65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="17" t="n">
         <v>43679</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="n">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="n">
         <v>-10.16</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="12" t="n">
         <f aca="false">SUM($C$3:$D5)</f>
         <v>-4.51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="17" t="n">
         <v>43680</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>1.4</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="n">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="n">
         <f aca="false">SUM($C$3:$D6)</f>
         <v>-3.11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="17" t="n">
         <v>43680</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="n">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="n">
         <v>-6.12</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="12" t="n">
         <f aca="false">SUM($C$3:$D7)</f>
         <v>-9.23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="n">
         <f aca="false">SUM($C$3:$D8)</f>
         <v>-9.23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="17" t="n">
         <v>43682</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="n">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="n">
         <v>-6.46</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="12" t="n">
         <f aca="false">SUM($C$3:$D9)</f>
         <v>-15.69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="17" t="n">
         <v>43683</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="n">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="n">
         <v>10.47</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="12" t="n">
         <f aca="false">SUM($C$3:$D10)</f>
         <v>-5.22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="17" t="n">
         <v>43684</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="n">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="n">
         <v>-13.13</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="12" t="n">
         <f aca="false">SUM($C$3:$D11)</f>
         <v>-18.35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="17" t="n">
         <v>43685</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="n">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="n">
         <v>-0.86</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="12" t="n">
         <f aca="false">SUM($C$3:$D12)</f>
         <v>-19.21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="17" t="n">
         <v>43686</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="n">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="n">
         <v>7.71</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="12" t="n">
         <f aca="false">SUM($C$3:$D13)</f>
         <v>-11.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="17" t="n">
         <v>43687</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="12" t="n">
         <v>-8.8</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="n">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="n">
         <f aca="false">SUM($C$3:$D14)</f>
         <v>-20.3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="17" t="n">
         <v>43688</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="n">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="n">
         <v>23.52</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="12" t="n">
         <f aca="false">SUM($C$3:$D15)</f>
         <v>3.22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="n">
         <f aca="false">SUM($C$3:$D16)</f>
         <v>3.22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="17" t="n">
         <v>43689</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="n">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="n">
         <v>8.2</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="12" t="n">
         <f aca="false">SUM($C$3:$D17)</f>
         <v>11.42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="17" t="n">
         <v>43692</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="n">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="n">
         <v>-11.64</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="12" t="n">
         <f aca="false">SUM($C$3:$D18)</f>
         <v>-0.220000000000002</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="17" t="n">
         <v>43693</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="n">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="n">
         <v>-13.88</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="12" t="n">
         <f aca="false">SUM($C$3:$D19)</f>
         <v>-14.1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="n">
+      <c r="A20" s="17" t="n">
         <v>43694</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="12" t="n">
         <v>-7.58</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="n">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="n">
         <f aca="false">SUM($C$3:$D20)</f>
         <v>-21.68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="17" t="n">
         <v>43694</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="n">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="n">
         <v>0.2</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="12" t="n">
         <f aca="false">SUM($C$3:$D21)</f>
         <v>-21.48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="n">
+      <c r="A22" s="17" t="n">
         <v>43695</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="n">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="n">
         <v>1.6</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E22" s="12" t="n">
         <f aca="false">SUM($C$3:$D22)</f>
         <v>-19.88</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="n">
+      <c r="A24" s="17" t="n">
         <v>43696</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="n">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="n">
         <v>21.47</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E24" s="12" t="n">
         <f aca="false">SUM($C$3:$D24)</f>
         <v>1.59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="17" t="n">
         <v>43697</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="n">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="n">
         <v>0.72</v>
       </c>
-      <c r="E25" s="11" t="n">
+      <c r="E25" s="12" t="n">
         <f aca="false">SUM($C$3:$D25)</f>
         <v>2.31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="n">
+      <c r="A26" s="17" t="n">
         <v>43698</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="n">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="n">
         <v>-7.6</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E26" s="12" t="n">
         <f aca="false">SUM($C$3:$D26)</f>
         <v>-5.29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="n">
+      <c r="A27" s="17" t="n">
         <v>43699</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="n">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="n">
         <v>-8.42</v>
       </c>
-      <c r="E27" s="11" t="n">
+      <c r="E27" s="12" t="n">
         <f aca="false">SUM($C$3:$D27)</f>
         <v>-13.71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="n">
+      <c r="A28" s="17" t="n">
         <v>43700</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11" t="n">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="n">
         <v>-2.37</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E28" s="12" t="n">
         <f aca="false">SUM($C$3:$D28)</f>
         <v>-16.08</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2127,67 +2261,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="C2" s="18" t="n">
+      <c r="A2" s="17"/>
+      <c r="C2" s="9" t="n">
         <f aca="false">SUM(C3:C29)</f>
         <v>-37.9</v>
       </c>
-      <c r="D2" s="18" t="n">
+      <c r="D2" s="9" t="n">
         <f aca="false">SUM(D3:D29)</f>
         <v>-11.68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="17" t="n">
         <v>43660</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="8" t="n">
         <v>-8</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="E4" s="8" t="n">
         <f aca="false">SUM($C$3:$D4)</f>
         <v>-8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="17" t="n">
         <v>43670</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="8" t="n">
         <v>38.3</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="8" t="n">
         <f aca="false">SUM($C$3:$D5)</f>
         <v>30.3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="17" t="n">
         <v>43671</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -2196,68 +2330,68 @@
       <c r="D6" s="19" t="n">
         <v>37.75</v>
       </c>
-      <c r="E6" s="17" t="n">
+      <c r="E6" s="8" t="n">
         <f aca="false">SUM($C$3:$D6)</f>
         <v>68.05</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="17" t="n">
         <v>43672</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="8" t="n">
         <v>-10.9</v>
       </c>
-      <c r="E7" s="17" t="n">
+      <c r="E7" s="8" t="n">
         <f aca="false">SUM($C$3:$D7)</f>
         <v>57.15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="17" t="n">
         <v>43673</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="8" t="n">
         <v>-29.9</v>
       </c>
-      <c r="E8" s="17" t="n">
+      <c r="E8" s="8" t="n">
         <f aca="false">SUM($C$3:$D8)</f>
         <v>27.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="17" t="n">
         <v>43674</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="8" t="n">
         <v>-72.9</v>
       </c>
-      <c r="E9" s="17" t="n">
+      <c r="E9" s="8" t="n">
         <f aca="false">SUM($C$3:$D9)</f>
         <v>-45.65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="17" t="n">
         <v>43676</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="n">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="n">
         <v>2.17</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="8" t="n">
         <f aca="false">SUM($C$3:$D10)</f>
         <v>-43.48</v>
       </c>
@@ -2266,20 +2400,20 @@
         <v>148.72</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="17" t="n">
         <v>43677</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="8" t="n">
         <v>-6.1</v>
       </c>
-      <c r="E11" s="17" t="n">
+      <c r="E11" s="8" t="n">
         <f aca="false">SUM($C$3:$D11)</f>
         <v>-49.58</v>
       </c>

--- a/statement.xlsx
+++ b/statement.xlsx
@@ -8,11 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Overall" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="2019-10" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="2019-09" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="2019-08" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="2019-07" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="roi" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Overall" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="2019-10" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="2019-09" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="2019-08" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="2019-07" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tournament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no of bets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bets amt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb&amp;t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coupe</t>
+  </si>
   <si>
     <t xml:space="preserve">2020-09</t>
   </si>
@@ -243,13 +280,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0;[RED]\-#,##0"/>
-    <numFmt numFmtId="166" formatCode="D\-MMM"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;[RED]\-#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="#,##0;[RED]\-#,##0"/>
+    <numFmt numFmtId="171" formatCode="D\-MMM"/>
+    <numFmt numFmtId="172" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -343,28 +383,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,15 +400,71 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -392,7 +472,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,7 +480,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -408,19 +488,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,578 +513,1540 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="10.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>43670</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <f aca="false">E3/D3</f>
+        <v>0.283703703703704</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">C3</f>
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">D3</f>
+        <v>135</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <f aca="false">E3</f>
+        <v>38.3</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <f aca="false">J3/I3</f>
+        <v>0.283703703703704</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>43671</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <f aca="false">E4/D4</f>
+        <v>0.209722222222222</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">SUM($C$3:C4)</f>
+        <v>24</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">SUM($D$3:D4)</f>
+        <v>315</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">SUM($E$3:E4)</f>
+        <v>76.05</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <f aca="false">J4/I4</f>
+        <v>0.241428571428571</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>43672</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <f aca="false">E5/D5</f>
+        <v>-0.0838461538461539</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">SUM($C$3:C5)</f>
+        <v>36</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">SUM($D$3:D5)</f>
+        <v>445</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">SUM($E$3:E5)</f>
+        <v>65.15</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <f aca="false">J5/I5</f>
+        <v>0.146404494382022</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>43674</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>-72.9</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <f aca="false">E6/D6</f>
+        <v>-0.373846153846154</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">SUM($C$3:C6)</f>
+        <v>49</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">SUM($D$3:D6)</f>
+        <v>640</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">SUM($E$3:E6)</f>
+        <v>-7.75000000000001</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <f aca="false">J6/I6</f>
+        <v>-0.012109375</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>43676</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <f aca="false">E7/D7</f>
+        <v>0.01736</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">SUM($C$3:C7)</f>
+        <v>63</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">SUM($D$3:D7)</f>
+        <v>765</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">SUM($E$3:E7)</f>
+        <v>-5.58000000000001</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <f aca="false">J7/I7</f>
+        <v>-0.00729411764705883</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <f aca="false">E8/D8</f>
+        <v>-0.0835616438356164</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">SUM($C$3:C8)</f>
+        <v>83</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">SUM($D$3:D8)</f>
+        <v>838</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">SUM($E$3:E8)</f>
+        <v>-11.68</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <f aca="false">J8/I8</f>
+        <v>-0.0139379474940334</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <f aca="false">E9/D9</f>
+        <v>0.217307692307692</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">SUM($C$3:C9)</f>
+        <v>91</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">SUM($D$3:D9)</f>
+        <v>864</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">SUM($E$3:E9)</f>
+        <v>-6.03000000000001</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <f aca="false">J9/I9</f>
+        <v>-0.00697916666666668</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
+        <v>43679</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>-10.16</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <f aca="false">E10/D10</f>
+        <v>-0.4064</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">SUM($C$3:C10)</f>
+        <v>98</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">SUM($D$3:D10)</f>
+        <v>889</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">SUM($E$3:E10)</f>
+        <v>-16.19</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <f aca="false">J10/I10</f>
+        <v>-0.0182114735658043</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="n">
+        <v>43680</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <f aca="false">E11/D11</f>
+        <v>-0.556363636363636</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">SUM($C$3:C11)</f>
+        <v>101</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">SUM($D$3:D11)</f>
+        <v>900</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">SUM($E$3:E11)</f>
+        <v>-22.31</v>
+      </c>
+      <c r="K11" s="10" t="n">
+        <f aca="false">J11/I11</f>
+        <v>-0.0247888888888889</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
+        <v>43682</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>-6.46</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <f aca="false">E12/D12</f>
+        <v>-0.40375</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">SUM($C$3:C12)</f>
+        <v>106</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">SUM($D$3:D12)</f>
+        <v>916</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">SUM($E$3:E12)</f>
+        <v>-28.77</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <f aca="false">J12/I12</f>
+        <v>-0.0314082969432315</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="n">
+        <v>43683</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <f aca="false">E13/D13</f>
+        <v>0.26175</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">SUM($C$3:C13)</f>
+        <v>117</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">SUM($D$3:D13)</f>
+        <v>956</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">SUM($E$3:E13)</f>
+        <v>-18.3</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <f aca="false">J13/I13</f>
+        <v>-0.019142259414226</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>-13.13</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <f aca="false">E14/D14</f>
+        <v>-0.285434782608696</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">SUM($C$3:C14)</f>
+        <v>130</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">SUM($D$3:D14)</f>
+        <v>1002</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">SUM($E$3:E14)</f>
+        <v>-31.43</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <f aca="false">J14/I14</f>
+        <v>-0.0313672654690619</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="n">
+        <v>43685</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <f aca="false">E15/D15</f>
+        <v>-0.0452631578947368</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">SUM($C$3:C15)</f>
+        <v>135</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">SUM($D$3:D15)</f>
+        <v>1021</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">SUM($E$3:E15)</f>
+        <v>-32.29</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <f aca="false">J15/I15</f>
+        <v>-0.0316258570029383</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="n">
+        <v>43686</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <f aca="false">E16/D16</f>
+        <v>0.700909090909091</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">SUM($C$3:C16)</f>
+        <v>139</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">SUM($D$3:D16)</f>
+        <v>1032</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">SUM($E$3:E16)</f>
+        <v>-24.58</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <f aca="false">J16/I16</f>
+        <v>-0.0238178294573643</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="n">
+        <v>43688</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <f aca="false">E17/D17</f>
+        <v>0.261333333333333</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">SUM($C$3:C17)</f>
+        <v>162</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">SUM($D$3:D17)</f>
+        <v>1122</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">SUM($E$3:E17)</f>
+        <v>-1.06</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <f aca="false">J17/I17</f>
+        <v>-0.000944741532976829</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
+        <v>43690</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <f aca="false">E18/D18</f>
+        <v>0.683333333333333</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">SUM($C$3:C18)</f>
+        <v>167</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">SUM($D$3:D18)</f>
+        <v>1134</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">SUM($E$3:E18)</f>
+        <v>7.14</v>
+      </c>
+      <c r="K18" s="10" t="n">
+        <f aca="false">J18/I18</f>
+        <v>0.00629629629629629</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="n">
+        <v>43692</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>-11.64</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <f aca="false">E19/D19</f>
+        <v>-0.529090909090909</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">SUM($C$3:C19)</f>
+        <v>175</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">SUM($D$3:D19)</f>
+        <v>1156</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">SUM($E$3:E19)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <f aca="false">J19/I19</f>
+        <v>-0.00389273356401384</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="n">
+        <v>43693</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>-13.88</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <f aca="false">E20/D20</f>
+        <v>-0.495714285714286</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">SUM($C$3:C20)</f>
+        <v>179</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">SUM($D$3:D20)</f>
+        <v>1184</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">SUM($E$3:E20)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <f aca="false">J20/I20</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="n">
+        <v>43694</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="0"/>
+      <c r="H21" s="0" t="n">
+        <f aca="false">SUM($C$3:C21)</f>
+        <v>181</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">SUM($D$3:D21)</f>
+        <v>1184</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">SUM($E$3:E21)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <f aca="false">J21/I21</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="0" t="n">
+        <f aca="false">SUM($C$3:C22)</f>
+        <v>181</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">SUM($D$3:D22)</f>
+        <v>1184</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">SUM($E$3:E22)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <f aca="false">J22/I22</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="0" t="n">
+        <f aca="false">SUM($C$3:C23)</f>
+        <v>181</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">SUM($D$3:D23)</f>
+        <v>1184</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">SUM($E$3:E23)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <f aca="false">J23/I23</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="0" t="n">
+        <f aca="false">SUM($C$3:C24)</f>
+        <v>181</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">SUM($D$3:D24)</f>
+        <v>1184</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">SUM($E$3:E24)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <f aca="false">J24/I24</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="0" t="n">
+        <f aca="false">SUM($C$3:C25)</f>
+        <v>181</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">SUM($D$3:D25)</f>
+        <v>1184</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">SUM($E$3:E25)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K25" s="10" t="n">
+        <f aca="false">J25/I25</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="0" t="n">
+        <f aca="false">SUM($C$3:C26)</f>
+        <v>181</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">SUM($D$3:D26)</f>
+        <v>1184</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">SUM($E$3:E26)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <f aca="false">J26/I26</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="0" t="n">
+        <f aca="false">SUM($C$3:C27)</f>
+        <v>181</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">SUM($D$3:D27)</f>
+        <v>1184</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">SUM($E$3:E27)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <f aca="false">J27/I27</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="n">
+        <f aca="false">SUM($C$3:C28)</f>
+        <v>181</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">SUM($D$3:D28)</f>
+        <v>1184</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">SUM($E$3:E28)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K28" s="10" t="n">
+        <f aca="false">J28/I28</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="0" t="n">
+        <f aca="false">SUM($C$3:C29)</f>
+        <v>181</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">SUM($D$3:D29)</f>
+        <v>1184</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">SUM($E$3:E29)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <f aca="false">J29/I29</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="0" t="n">
+        <f aca="false">SUM($C$3:C30)</f>
+        <v>181</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">SUM($D$3:D30)</f>
+        <v>1184</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">SUM($E$3:E30)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K30" s="10" t="n">
+        <f aca="false">J30/I30</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="0" t="n">
+        <f aca="false">SUM($C$3:C31)</f>
+        <v>179</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">SUM($D$3:D31)</f>
+        <v>1184</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">SUM($E$3:E31)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <f aca="false">J31/I31</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="0" t="n">
+        <f aca="false">SUM($C$3:C32)</f>
+        <v>179</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <f aca="false">SUM($D$3:D32)</f>
+        <v>1184</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">SUM($E$3:E32)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K32" s="10" t="n">
+        <f aca="false">J32/I32</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="0" t="n">
+        <f aca="false">SUM($C$3:C33)</f>
+        <v>179</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">SUM($D$3:D33)</f>
+        <v>1184</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">SUM($E$3:E33)</f>
+        <v>-18.38</v>
+      </c>
+      <c r="K33" s="10" t="n">
+        <f aca="false">J33/I33</f>
+        <v>-0.0155236486486486</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O4" activeCellId="1" sqref="C21 O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="6" style="4" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="6.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="6" style="16" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="9" width="8.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="14" t="n">
         <f aca="false">SUM(D3:D28)</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="14" t="n">
         <f aca="false">SUM(E3:E28)</f>
         <v>-5.38666666666667</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="14" t="n">
         <f aca="false">SUM(F3:F28)</f>
         <v>-6.72666666666667</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="14" t="n">
         <f aca="false">SUM(G3:G28)</f>
         <v>-10.8583333333333</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="14" t="n">
         <f aca="false">SUM(H3:H28)</f>
         <v>-10.8583333333333</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="14" t="n">
         <f aca="false">SUM(I3:I28)</f>
         <v>-10.8583333333333</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="14" t="n">
         <f aca="false">SUM(J3:J28)</f>
         <v>-10.8583333333333</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="14" t="n">
         <f aca="false">SUM(K3:K28)</f>
         <v>-10.8583333333333</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="14" t="n">
         <f aca="false">SUM(L3:L28)</f>
         <v>-10.8583333333333</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="14" t="n">
         <f aca="false">SUM(M3:M28)</f>
         <v>-10.8583333333333</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="14" t="n">
         <f aca="false">SUM(N3:N28)</f>
         <v>-10.8583333333333</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="14" t="n">
         <f aca="false">SUM(O3:O28)</f>
         <v>-10.8583333333333</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="14" t="n">
         <f aca="false">SUM(P3:P28)</f>
         <v>-12.4</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="14" t="n">
         <f aca="false">SUM(Q3:Q28)</f>
         <v>-5.47166666666667</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="14" t="n">
         <f aca="false">SUM(R3:R28)</f>
         <v>-4.13166666666667</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="14" t="n">
         <f aca="false">'2019-10'!C1</f>
         <v>18.5</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="15" t="n">
         <f aca="false">$C$4/12</f>
         <v>1.54166666666667</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="6"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14" t="n">
         <f aca="false">'2019-09'!C2</f>
         <v>-9.74</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="15" t="n">
         <f aca="false">$C$5/12</f>
         <v>-0.811666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="n">
         <f aca="false">'2019-09'!D2</f>
         <v>-73.4</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="P6" s="15" t="n">
         <f aca="false">$C$6/12</f>
         <v>-6.11666666666667</v>
       </c>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="n">
         <f aca="false">'2019-08'!C2</f>
         <v>-14.98</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="P7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="15" t="n">
         <f aca="false">$C$7/12</f>
         <v>-1.24833333333333</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="14" t="n">
         <f aca="false">'2019-08'!D2</f>
         <v>-1.1</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="G8" s="3" t="n">
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="G8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="H8" s="3" t="n">
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="H8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="I8" s="3" t="n">
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="I8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="J8" s="3" t="n">
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="J8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="K8" s="3" t="n">
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="K8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="L8" s="3" t="n">
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="L8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="M8" s="3" t="n">
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="M8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="N8" s="3" t="n">
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="N8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="O8" s="3" t="n">
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="O8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="P8" s="3" t="n">
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="P8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="Q8" s="3" t="n">
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="Q8" s="15" t="n">
         <f aca="false">$C$8/12</f>
-        <v>-0.0916666666666667</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+        <v>-0.0916666666666669</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14" t="n">
         <v>-37.9</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="n">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="15" t="n">
         <f aca="false">$C$9/12</f>
         <v>-3.15833333333333</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="14" t="n">
         <v>-11.68</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="n">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="Q10" s="3" t="n">
+      <c r="Q10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="15" t="n">
         <f aca="false">$C$10/12</f>
         <v>-0.973333333333333</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1025,7 +2059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1033,295 +2067,295 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="C21 A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="8" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="9" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="9" t="n">
+      <c r="C1" s="19" t="n">
         <f aca="false">SUM(C2:C30)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="18" t="n">
         <v>43738</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="n">
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="n">
         <v>1.56</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="11" t="n">
         <f aca="false">SUM(C$2:C3)</f>
         <v>1.56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="18" t="n">
         <v>43739</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="n">
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="n">
         <v>-1.26</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="11" t="n">
         <f aca="false">SUM(C$2:C4)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="18" t="n">
         <v>43740</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="n">
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="11" t="n">
         <v>0.25</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="11" t="n">
         <f aca="false">SUM(C$2:C5)</f>
         <v>0.55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="18" t="n">
         <v>43741</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8" t="n">
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11" t="n">
         <v>1.28</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="11" t="n">
         <f aca="false">SUM(C$2:C6)</f>
         <v>1.83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="18" t="n">
         <v>43742</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8" t="n">
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11" t="n">
         <v>5.37</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="11" t="n">
         <f aca="false">SUM(C$2:C7)</f>
         <v>7.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="18" t="n">
         <v>43743</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8" t="n">
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11" t="n">
         <v>-5.86</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="11" t="n">
         <f aca="false">SUM(C$2:C8)</f>
         <v>1.34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="18" t="n">
         <v>43744</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8" t="n">
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11" t="n">
         <v>-1.88</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="11" t="n">
         <f aca="false">SUM(C$2:C9)</f>
         <v>-0.54</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>17</v>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="18" t="n">
         <v>43745</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="8" t="n">
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="11" t="n">
         <v>2.86</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="11" t="n">
         <f aca="false">SUM(C$2:C10)</f>
         <v>2.32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="18" t="n">
         <v>43746</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="8" t="n">
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="11" t="n">
         <v>2.33</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="11" t="n">
         <f aca="false">SUM(C$2:C11)</f>
         <v>4.65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="18" t="n">
         <v>43747</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="n">
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="11" t="n">
         <v>3.77</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="11" t="n">
         <f aca="false">SUM(C$2:C12)</f>
         <v>8.42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="18" t="n">
         <v>43748</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="n">
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11" t="n">
         <v>4.29</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="11" t="n">
         <f aca="false">SUM(C$2:C13)</f>
         <v>12.71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="18" t="n">
         <v>43749</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8" t="n">
+      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11" t="n">
         <v>-8.2</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="11" t="n">
         <f aca="false">SUM(C$2:C14)</f>
         <v>4.51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="18" t="n">
         <v>43750</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="8" t="n">
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="11" t="n">
         <v>2.8</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="11" t="n">
         <f aca="false">SUM(C$2:C15)</f>
         <v>7.31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="18" t="n">
         <v>43751</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="n">
+      <c r="B16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="11" t="n">
         <v>11.19</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="11" t="n">
         <f aca="false">SUM(C$2:C16)</f>
         <v>18.5</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>18</v>
+      <c r="E16" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="11" t="n">
         <f aca="false">SUM(C$2:C17)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="11" t="n">
         <f aca="false">SUM(C$2:C18)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="11" t="n">
         <f aca="false">SUM(C$2:C19)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="11" t="n">
         <f aca="false">SUM(C$2:C20)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="11" t="n">
         <f aca="false">SUM(C$2:C21)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="11" t="n">
         <f aca="false">SUM(C$2:C22)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="11" t="n">
         <f aca="false">SUM(C$2:C23)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="11" t="n">
         <f aca="false">SUM(C$2:C24)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="11" t="n">
         <f aca="false">SUM(C$2:C25)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="11" t="n">
         <f aca="false">SUM(C$2:C26)</f>
         <v>18.5</v>
       </c>
@@ -1337,7 +2371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1345,897 +2379,454 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="C21 A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="16.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="21" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="9" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>15</v>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="24" t="n">
         <f aca="false">SUM(C3:C30)</f>
         <v>-9.74</v>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="24" t="n">
         <f aca="false">SUM(D3:D30)</f>
         <v>-73.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="20" t="n">
         <v>43703</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="n">
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="n">
         <v>-17.19</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="22" t="n">
         <f aca="false">SUM($C$3:$D4)</f>
         <v>-17.19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="20" t="n">
         <v>43704</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="n">
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="n">
         <v>-7.84</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="22" t="n">
         <f aca="false">SUM($C$3:$D5)</f>
         <v>-25.03</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="20" t="n">
         <v>43706</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="n">
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="n">
         <v>-36.78</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="22" t="n">
         <f aca="false">SUM($C$3:$D6)</f>
         <v>-61.81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="20" t="n">
         <v>43707</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="n">
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="n">
         <v>3.7</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="22" t="n">
         <f aca="false">SUM($C$3:$D7)</f>
         <v>-58.11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="20" t="n">
         <v>43707</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12" t="n">
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="22" t="n">
         <v>-9.74</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="n">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="n">
         <f aca="false">SUM($C$3:$D8)</f>
         <v>-67.85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="n">
+      <c r="B9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="n">
         <f aca="false">SUM($C$3:$D9)</f>
         <v>-67.85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="20" t="n">
         <v>43710</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="n">
+      <c r="B10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="n">
         <v>-2.8</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="22" t="n">
         <f aca="false">SUM($C$3:$D10)</f>
         <v>-70.65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="20" t="n">
         <v>43711</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="n">
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="n">
         <v>-13</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="22" t="n">
         <f aca="false">SUM($C$3:$D11)</f>
         <v>-83.65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="20" t="n">
         <v>43713</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="n">
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="n">
         <v>2.2</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="22" t="n">
         <f aca="false">SUM($C$3:$D12)</f>
         <v>-81.45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="20" t="n">
         <v>43714</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="n">
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="n">
         <v>0.12</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="22" t="n">
         <f aca="false">SUM($C$3:$D13)</f>
         <v>-81.33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="n">
+      <c r="B14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22" t="n">
         <f aca="false">SUM($C$3:$D14)</f>
         <v>-81.33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="n">
+      <c r="B15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="n">
         <f aca="false">SUM($C$3:$D15)</f>
         <v>-81.33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="20" t="n">
         <v>43724</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="n">
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="n">
         <v>-0.48</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="22" t="n">
         <f aca="false">SUM($C$3:$D16)</f>
         <v>-81.81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="20" t="n">
         <v>43725</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="n">
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="n">
         <v>-1.64</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="22" t="n">
         <f aca="false">SUM($C$3:$D17)</f>
         <v>-83.45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
+      <c r="A18" s="20" t="n">
         <v>43726</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="n">
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="n">
         <v>0.05</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="22" t="n">
         <f aca="false">SUM($C$3:$D18)</f>
         <v>-83.4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+      <c r="A19" s="20" t="n">
         <v>43727</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="n">
+      <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="n">
         <v>1.73</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="22" t="n">
         <f aca="false">SUM($C$3:$D19)</f>
         <v>-81.67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+      <c r="A20" s="20" t="n">
         <v>43728</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="n">
+      <c r="B20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="n">
         <v>-2.02</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="22" t="n">
         <f aca="false">SUM($C$3:$D20)</f>
         <v>-83.69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
+      <c r="A21" s="20" t="n">
         <v>43729</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="n">
+      <c r="B21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="n">
         <v>5.58</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="22" t="n">
         <f aca="false">SUM($C$3:$D21)</f>
         <v>-78.11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+      <c r="A22" s="20" t="n">
         <v>43730</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="n">
+      <c r="B22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="n">
         <v>0.8</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="22" t="n">
         <f aca="false">SUM($C$3:$D22)</f>
         <v>-77.31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="n">
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="n">
         <f aca="false">SUM($C$3:$D23)</f>
         <v>-77.31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
+      <c r="A24" s="20" t="n">
         <v>43731</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="n">
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="n">
         <v>0.16</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="22" t="n">
         <f aca="false">SUM($C$3:$D24)</f>
         <v>-77.15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
+      <c r="A25" s="20" t="n">
         <v>43732</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="n">
+      <c r="B25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="n">
         <v>-0.8</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="22" t="n">
         <f aca="false">SUM($C$3:$D25)</f>
         <v>-77.95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
+      <c r="A26" s="20" t="n">
         <v>43733</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="n">
+      <c r="B26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="n">
         <v>-1.31</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="22" t="n">
         <f aca="false">SUM($C$3:$D26)</f>
         <v>-79.26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+      <c r="A27" s="20" t="n">
         <v>43734</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="n">
+      <c r="B27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="n">
         <v>-5.32</v>
       </c>
-      <c r="E27" s="12" t="n">
+      <c r="E27" s="22" t="n">
         <f aca="false">SUM($C$3:$D27)</f>
         <v>-84.58</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
+      <c r="A28" s="20" t="n">
         <v>43735</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="n">
+      <c r="B28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="n">
         <v>1.7</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="22" t="n">
         <f aca="false">SUM($C$3:$D28)</f>
         <v>-82.88</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
+      <c r="A29" s="20" t="n">
         <v>43737</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="11" t="n">
+      <c r="B29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="21" t="n">
         <v>-0.26</v>
       </c>
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="22" t="n">
         <f aca="false">SUM($C$3:$D29)</f>
         <v>-83.14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="22" t="n">
         <f aca="false">SUM($C$3:$D30)</f>
         <v>-83.14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="12" t="n">
+      <c r="E31" s="22" t="n">
         <f aca="false">SUM($C$3:$D31)</f>
         <v>-83.14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="22" t="n">
         <f aca="false">SUM($C$3:$D32)</f>
         <v>-83.14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="12" t="n">
+      <c r="E33" s="22" t="n">
         <f aca="false">SUM($C$3:$D33)</f>
         <v>-83.14</v>
       </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="12" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17"/>
-      <c r="C1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
-      <c r="C2" s="14" t="n">
-        <f aca="false">SUM(C3:C30)</f>
-        <v>-14.98</v>
-      </c>
-      <c r="D2" s="14" t="n">
-        <f aca="false">SUM(D3:D30)</f>
-        <v>-1.1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
-        <v>43678</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <f aca="false">SUM($C$3:$D4)</f>
-        <v>5.65</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
-        <v>43679</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="n">
-        <v>-10.16</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <f aca="false">SUM($C$3:$D5)</f>
-        <v>-4.51</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
-        <v>43680</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="n">
-        <f aca="false">SUM($C$3:$D6)</f>
-        <v>-3.11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
-        <v>43680</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="n">
-        <v>-6.12</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <f aca="false">SUM($C$3:$D7)</f>
-        <v>-9.23</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="n">
-        <f aca="false">SUM($C$3:$D8)</f>
-        <v>-9.23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
-        <v>43682</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="n">
-        <v>-6.46</v>
-      </c>
-      <c r="E9" s="12" t="n">
-        <f aca="false">SUM($C$3:$D9)</f>
-        <v>-15.69</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
-        <v>43683</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E10" s="12" t="n">
-        <f aca="false">SUM($C$3:$D10)</f>
-        <v>-5.22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
-        <v>43684</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="n">
-        <v>-13.13</v>
-      </c>
-      <c r="E11" s="12" t="n">
-        <f aca="false">SUM($C$3:$D11)</f>
-        <v>-18.35</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
-        <v>43685</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="E12" s="12" t="n">
-        <f aca="false">SUM($C$3:$D12)</f>
-        <v>-19.21</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
-        <v>43686</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="E13" s="12" t="n">
-        <f aca="false">SUM($C$3:$D13)</f>
-        <v>-11.5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
-        <v>43687</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="12" t="n">
-        <v>-8.8</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="n">
-        <f aca="false">SUM($C$3:$D14)</f>
-        <v>-20.3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="n">
-        <v>43688</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="E15" s="12" t="n">
-        <f aca="false">SUM($C$3:$D15)</f>
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12" t="n">
-        <f aca="false">SUM($C$3:$D16)</f>
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
-        <v>43689</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="E17" s="12" t="n">
-        <f aca="false">SUM($C$3:$D17)</f>
-        <v>11.42</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="n">
-        <v>43692</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="n">
-        <v>-11.64</v>
-      </c>
-      <c r="E18" s="12" t="n">
-        <f aca="false">SUM($C$3:$D18)</f>
-        <v>-0.220000000000002</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="n">
-        <v>43693</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="n">
-        <v>-13.88</v>
-      </c>
-      <c r="E19" s="12" t="n">
-        <f aca="false">SUM($C$3:$D19)</f>
-        <v>-14.1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
-        <v>43694</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="12" t="n">
-        <v>-7.58</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="n">
-        <f aca="false">SUM($C$3:$D20)</f>
-        <v>-21.68</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
-        <v>43694</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E21" s="12" t="n">
-        <f aca="false">SUM($C$3:$D21)</f>
-        <v>-21.48</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="n">
-        <v>43695</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E22" s="12" t="n">
-        <f aca="false">SUM($C$3:$D22)</f>
-        <v>-19.88</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="n">
-        <v>43696</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="E24" s="12" t="n">
-        <f aca="false">SUM($C$3:$D24)</f>
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="n">
-        <v>43697</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E25" s="12" t="n">
-        <f aca="false">SUM($C$3:$D25)</f>
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="n">
-        <v>43698</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="n">
-        <v>-7.6</v>
-      </c>
-      <c r="E26" s="12" t="n">
-        <f aca="false">SUM($C$3:$D26)</f>
-        <v>-5.29</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="n">
-        <v>43699</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="n">
-        <v>-8.42</v>
-      </c>
-      <c r="E27" s="12" t="n">
-        <f aca="false">SUM($C$3:$D27)</f>
-        <v>-13.71</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="n">
-        <v>43700</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="E28" s="12" t="n">
-        <f aca="false">SUM($C$3:$D28)</f>
-        <v>-16.08</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2253,167 +2844,610 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="1" sqref="C21 A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="21" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="9" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17"/>
-      <c r="C1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>15</v>
+      <c r="A1" s="4"/>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
-      <c r="C2" s="9" t="n">
+      <c r="A2" s="4"/>
+      <c r="C2" s="24" t="n">
+        <f aca="false">SUM(C3:C30)</f>
+        <v>-14.98</v>
+      </c>
+      <c r="D2" s="24" t="n">
+        <f aca="false">SUM(D3:D30)</f>
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E4" s="22" t="n">
+        <f aca="false">SUM($C$3:$D4)</f>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>43679</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="n">
+        <v>-10.16</v>
+      </c>
+      <c r="E5" s="22" t="n">
+        <f aca="false">SUM($C$3:$D5)</f>
+        <v>-4.51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>43680</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="n">
+        <f aca="false">SUM($C$3:$D6)</f>
+        <v>-3.11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>43680</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <f aca="false">SUM($C$3:$D7)</f>
+        <v>-9.23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="n">
+        <f aca="false">SUM($C$3:$D8)</f>
+        <v>-9.23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>43682</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="n">
+        <v>-6.46</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <f aca="false">SUM($C$3:$D9)</f>
+        <v>-15.69</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>43683</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E10" s="22" t="n">
+        <f aca="false">SUM($C$3:$D10)</f>
+        <v>-5.22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="n">
+        <v>-13.13</v>
+      </c>
+      <c r="E11" s="22" t="n">
+        <f aca="false">SUM($C$3:$D11)</f>
+        <v>-18.35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>43685</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <f aca="false">SUM($C$3:$D12)</f>
+        <v>-19.21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>43686</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="E13" s="22" t="n">
+        <f aca="false">SUM($C$3:$D13)</f>
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>43687</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>-8.8</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22" t="n">
+        <f aca="false">SUM($C$3:$D14)</f>
+        <v>-20.3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>43688</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="E15" s="22" t="n">
+        <f aca="false">SUM($C$3:$D15)</f>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="n">
+        <f aca="false">SUM($C$3:$D16)</f>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>43689</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="E17" s="22" t="n">
+        <f aca="false">SUM($C$3:$D17)</f>
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>43692</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="n">
+        <v>-11.64</v>
+      </c>
+      <c r="E18" s="22" t="n">
+        <f aca="false">SUM($C$3:$D18)</f>
+        <v>-0.220000000000003</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>43693</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="n">
+        <v>-13.88</v>
+      </c>
+      <c r="E19" s="22" t="n">
+        <f aca="false">SUM($C$3:$D19)</f>
+        <v>-14.1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>43694</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>-7.58</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="n">
+        <f aca="false">SUM($C$3:$D20)</f>
+        <v>-21.68</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>43694</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="22" t="n">
+        <f aca="false">SUM($C$3:$D21)</f>
+        <v>-21.48</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>43695</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E22" s="22" t="n">
+        <f aca="false">SUM($C$3:$D22)</f>
+        <v>-19.88</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>43696</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="E24" s="22" t="n">
+        <f aca="false">SUM($C$3:$D24)</f>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>43697</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E25" s="22" t="n">
+        <f aca="false">SUM($C$3:$D25)</f>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>43698</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="n">
+        <v>-7.6</v>
+      </c>
+      <c r="E26" s="22" t="n">
+        <f aca="false">SUM($C$3:$D26)</f>
+        <v>-5.29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>43699</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="n">
+        <v>-8.42</v>
+      </c>
+      <c r="E27" s="22" t="n">
+        <f aca="false">SUM($C$3:$D27)</f>
+        <v>-13.71</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>43700</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="E28" s="22" t="n">
+        <f aca="false">SUM($C$3:$D28)</f>
+        <v>-16.08</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="C21 A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="9" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="9" width="8.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4"/>
+      <c r="C1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
+      <c r="C2" s="19" t="n">
         <f aca="false">SUM(C3:C29)</f>
         <v>-37.9</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="19" t="n">
         <f aca="false">SUM(D3:D29)</f>
         <v>-11.68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+      <c r="A4" s="4" t="n">
         <v>43660</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="n">
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="n">
         <v>-8</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="11" t="n">
         <f aca="false">SUM($C$3:$D4)</f>
         <v>-8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+      <c r="A5" s="4" t="n">
         <v>43670</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="n">
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="11" t="n">
         <v>38.3</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="11" t="n">
         <f aca="false">SUM($C$3:$D5)</f>
         <v>30.3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="4" t="n">
         <v>43671</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="19" t="n">
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="27" t="n">
         <v>37.75</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="11" t="n">
         <f aca="false">SUM($C$3:$D6)</f>
         <v>68.05</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+      <c r="A7" s="4" t="n">
         <v>43672</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="n">
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="11" t="n">
         <v>-10.9</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="11" t="n">
         <f aca="false">SUM($C$3:$D7)</f>
         <v>57.15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="4" t="n">
         <v>43673</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8" t="n">
+      <c r="B8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="n">
         <v>-29.9</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="11" t="n">
         <f aca="false">SUM($C$3:$D8)</f>
         <v>27.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+      <c r="A9" s="4" t="n">
         <v>43674</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="n">
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="11" t="n">
         <v>-72.9</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="11" t="n">
         <f aca="false">SUM($C$3:$D9)</f>
         <v>-45.65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+      <c r="A10" s="4" t="n">
         <v>43676</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="n">
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="n">
         <v>2.17</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="11" t="n">
         <f aca="false">SUM($C$3:$D10)</f>
         <v>-43.48</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="9" t="n">
         <f aca="false">156.52-7.8</f>
         <v>148.72</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>34</v>
+      <c r="H10" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+      <c r="A11" s="4" t="n">
         <v>43677</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="n">
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="11" t="n">
         <v>-6.1</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="11" t="n">
         <f aca="false">SUM($C$3:$D11)</f>
         <v>-49.58</v>
       </c>
